--- a/Tablets Distribution - Quthing.xlsx
+++ b/Tablets Distribution - Quthing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All Tablets" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,30 @@
     <sheet name="Sebapala" sheetId="4" r:id="rId4"/>
     <sheet name="Mount Moorosi" sheetId="5" r:id="rId5"/>
     <sheet name="Qhoali" sheetId="6" r:id="rId6"/>
+    <sheet name="Supervisors" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+  <si>
+    <t>HJF0TH42</t>
+  </si>
+  <si>
+    <t>HJF0THBW</t>
+  </si>
+  <si>
+    <t>Lenovo Tab A8</t>
+  </si>
+  <si>
+    <t>11V1DP104247</t>
+  </si>
+  <si>
+    <t>11V1DP104246</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,10 +428,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>